--- a/rnn/data/han/수질/가평천3_2019.xlsx
+++ b/rnn/data/han/수질/가평천3_2019.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\사업관련\환경AI\모듈작업\water-quality-main\water-quality-main\gain_new3\han\수질\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="184">
   <si>
     <t>dt</t>
   </si>
@@ -569,25 +576,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -605,7 +619,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -613,17 +633,25 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -632,10 +660,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -881,83 +909,81 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W34" workbookViewId="0">
+      <selection activeCell="AC54" sqref="AC54:AS54"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.57" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.75" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.43" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.71" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.71" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.75" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.71" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.29" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.29" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.71" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.43" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.86" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="6.71" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.57" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.71" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.86" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.86" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.29" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.86" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.43" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.14" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.57" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.43" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.71" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.43" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1145,7 +1171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1222,7 +1248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1299,7 +1325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -1376,7 +1402,7 @@
         <v>81</v>
       </c>
       <c r="AC4" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AD4" s="4">
         <v>1.9339999999999999</v>
@@ -1385,16 +1411,16 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF4" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AG4">
         <v>107</v>
       </c>
       <c r="AH4" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI4" s="5">
-        <v>0.10000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AJ4">
         <v>15</v>
@@ -1403,31 +1429,31 @@
         <v>2.0329999999999999</v>
       </c>
       <c r="AL4" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AM4" s="4">
         <v>0.47899999999999998</v>
       </c>
       <c r="AN4" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AO4" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AP4" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ4" s="4">
         <v>2.0019999999999998</v>
       </c>
       <c r="AR4" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS4" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -1504,7 +1530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1581,7 +1607,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -1658,7 +1684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1735,7 +1761,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -1812,7 +1838,7 @@
         <v>93</v>
       </c>
       <c r="AC9" s="4">
-        <v>0.025999999999999999</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="AD9" s="6">
         <v>2.1800000000000002</v>
@@ -1821,16 +1847,16 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF9" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AG9">
         <v>124</v>
       </c>
       <c r="AH9" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI9" s="5">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AJ9" s="5">
         <v>15.1</v>
@@ -1839,7 +1865,7 @@
         <v>2.3140000000000001</v>
       </c>
       <c r="AL9" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AM9" s="4">
         <v>0.33200000000000002</v>
@@ -1848,22 +1874,22 @@
         <v>3.5</v>
       </c>
       <c r="AO9" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AP9" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ9" s="4">
         <v>2.2650000000000001</v>
       </c>
       <c r="AR9" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS9" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1940,7 +1966,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2017,7 +2043,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -2094,7 +2120,7 @@
         <v>99</v>
       </c>
       <c r="AC12" s="4">
-        <v>0.035000000000000003</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AD12" s="6">
         <v>1.77</v>
@@ -2103,25 +2129,25 @@
         <v>8</v>
       </c>
       <c r="AF12" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG12">
         <v>113</v>
       </c>
       <c r="AH12" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI12">
         <v>1</v>
       </c>
       <c r="AJ12" s="5">
-        <v>12.699999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="AK12" s="4">
         <v>1.9550000000000001</v>
       </c>
       <c r="AL12" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AM12" s="4">
         <v>0.40200000000000002</v>
@@ -2130,19 +2156,19 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="AP12" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ12" s="4">
         <v>1.9359999999999999</v>
       </c>
       <c r="AR12" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS12" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -2219,25 +2245,25 @@
         <v>101</v>
       </c>
       <c r="AC13" s="4">
-        <v>0.032000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD13" s="4">
         <v>1.7509999999999999</v>
       </c>
       <c r="AE13" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF13" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG13">
         <v>114</v>
       </c>
       <c r="AH13" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI13" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AJ13" s="5">
         <v>12.1</v>
@@ -2252,25 +2278,25 @@
         <v>0.47899999999999998</v>
       </c>
       <c r="AN13" s="5">
-        <v>9.9000000000000004</v>
+        <v>9.9</v>
       </c>
       <c r="AO13" s="5">
         <v>1.5</v>
       </c>
       <c r="AP13" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ13" s="4">
         <v>1.9930000000000001</v>
       </c>
       <c r="AR13" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS13" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -2347,13 +2373,13 @@
         <v>103</v>
       </c>
       <c r="AC14" s="4">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD14" s="4">
         <v>1.7350000000000001</v>
       </c>
       <c r="AE14" s="5">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF14">
         <v>2</v>
@@ -2362,10 +2388,10 @@
         <v>100</v>
       </c>
       <c r="AH14" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI14" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AJ14" s="5">
         <v>11.9</v>
@@ -2374,7 +2400,7 @@
         <v>2.0070000000000001</v>
       </c>
       <c r="AL14" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AM14" s="4">
         <v>1.161</v>
@@ -2383,19 +2409,19 @@
         <v>10.4</v>
       </c>
       <c r="AP14" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ14" s="4">
         <v>1.976</v>
       </c>
       <c r="AR14" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS14" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -2472,7 +2498,7 @@
         <v>105</v>
       </c>
       <c r="AC15" s="4">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD15" s="4">
         <v>1.6779999999999999</v>
@@ -2481,7 +2507,7 @@
         <v>8</v>
       </c>
       <c r="AF15" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AG15">
         <v>100</v>
@@ -2493,13 +2519,13 @@
         <v>1.8</v>
       </c>
       <c r="AJ15" s="5">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AK15" s="4">
         <v>1.8580000000000001</v>
       </c>
       <c r="AL15" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AM15" s="4">
         <v>1.161</v>
@@ -2508,19 +2534,19 @@
         <v>12.6</v>
       </c>
       <c r="AP15" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ15" s="4">
         <v>1.8560000000000001</v>
       </c>
       <c r="AR15" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS15">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2597,7 +2623,7 @@
         <v>107</v>
       </c>
       <c r="AC16" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AD16" s="4">
         <v>1.498</v>
@@ -2606,13 +2632,13 @@
         <v>8</v>
       </c>
       <c r="AF16" s="5">
-        <v>2.1000000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AG16">
         <v>91</v>
       </c>
       <c r="AH16" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI16">
         <v>2</v>
@@ -2624,31 +2650,31 @@
         <v>1.6679999999999999</v>
       </c>
       <c r="AL16" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AM16" s="4">
         <v>2.7789999999999999</v>
       </c>
       <c r="AN16" s="5">
-        <v>12.300000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="AO16" s="5">
         <v>1.7</v>
       </c>
       <c r="AP16" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ16" s="4">
         <v>1.659</v>
       </c>
       <c r="AR16" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS16" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -2725,13 +2751,13 @@
         <v>109</v>
       </c>
       <c r="AC17" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AD17" s="4">
         <v>1.3680000000000001</v>
       </c>
       <c r="AE17" s="5">
-        <v>7.7000000000000002</v>
+        <v>7.7</v>
       </c>
       <c r="AF17" s="5">
         <v>2.2000000000000002</v>
@@ -2740,13 +2766,13 @@
         <v>88</v>
       </c>
       <c r="AH17" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI17">
         <v>2</v>
       </c>
       <c r="AJ17" s="5">
-        <v>11.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AK17" s="4">
         <v>1.591</v>
@@ -2761,19 +2787,19 @@
         <v>17</v>
       </c>
       <c r="AP17" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ17" s="4">
         <v>1.569</v>
       </c>
       <c r="AR17" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS17" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2850,25 +2876,25 @@
         <v>111</v>
       </c>
       <c r="AC18" s="4">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AD18" s="4">
         <v>1.1559999999999999</v>
       </c>
       <c r="AE18" s="5">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF18" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AG18">
         <v>97</v>
       </c>
       <c r="AH18" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI18" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AJ18" s="5">
         <v>11.1</v>
@@ -2877,7 +2903,7 @@
         <v>1.454</v>
       </c>
       <c r="AL18" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AM18" s="4">
         <v>1.3140000000000001</v>
@@ -2886,19 +2912,19 @@
         <v>20.399999999999999</v>
       </c>
       <c r="AP18" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ18" s="4">
         <v>1.2210000000000001</v>
       </c>
       <c r="AR18" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS18" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2975,7 +3001,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -3052,7 +3078,7 @@
         <v>115</v>
       </c>
       <c r="AC20" s="4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AD20" s="4">
         <v>1.224</v>
@@ -3061,25 +3087,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF20" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG20">
         <v>105</v>
       </c>
       <c r="AH20" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI20" s="5">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AJ20" s="5">
-        <v>10.800000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="AK20" s="4">
         <v>1.3839999999999999</v>
       </c>
       <c r="AL20" s="4">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AM20" s="4">
         <v>0.66400000000000003</v>
@@ -3088,19 +3114,19 @@
         <v>20.399999999999999</v>
       </c>
       <c r="AP20" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ20" s="4">
         <v>1.3420000000000001</v>
       </c>
       <c r="AR20" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS20" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -3177,7 +3203,7 @@
         <v>117</v>
       </c>
       <c r="AC21" s="4">
-        <v>0.032000000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AD21" s="4">
         <v>1.327</v>
@@ -3186,7 +3212,7 @@
         <v>8.5</v>
       </c>
       <c r="AF21" s="5">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AG21">
         <v>140</v>
@@ -3204,7 +3230,7 @@
         <v>1.6479999999999999</v>
       </c>
       <c r="AL21" s="4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AM21" s="4">
         <v>0.219</v>
@@ -3213,10 +3239,10 @@
         <v>26</v>
       </c>
       <c r="AO21" s="5">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="AP21" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ21" s="4">
         <v>1.6060000000000001</v>
@@ -3228,7 +3254,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -3305,55 +3331,55 @@
         <v>119</v>
       </c>
       <c r="AC22" s="4">
-        <v>0.024</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AD22" s="4">
         <v>1.232</v>
       </c>
       <c r="AE22" s="5">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF22" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG22">
         <v>107</v>
       </c>
       <c r="AH22" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="AI22" s="5">
-        <v>4.7000000000000002</v>
+        <v>4.7</v>
       </c>
       <c r="AJ22" s="5">
-        <v>11.699999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="AK22" s="4">
         <v>1.4490000000000001</v>
       </c>
       <c r="AL22" s="4">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AM22" s="4">
         <v>1.4810000000000001</v>
       </c>
       <c r="AN22" s="5">
-        <v>22.399999999999999</v>
+        <v>22.4</v>
       </c>
       <c r="AP22" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ22" s="4">
         <v>1.3660000000000001</v>
       </c>
       <c r="AR22" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS22" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>120</v>
       </c>
@@ -3430,16 +3456,16 @@
         <v>121</v>
       </c>
       <c r="AC23" s="4">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AD23" s="4">
         <v>1.264</v>
       </c>
       <c r="AE23" s="5">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF23" s="5">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AG23">
         <v>119</v>
@@ -3448,7 +3474,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI23" s="5">
-        <v>3.7000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="AJ23">
         <v>12</v>
@@ -3463,22 +3489,22 @@
         <v>1.161</v>
       </c>
       <c r="AN23" s="5">
-        <v>23.399999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="AP23" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ23" s="4">
         <v>1.3360000000000001</v>
       </c>
       <c r="AR23" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS23" s="5">
         <v>1.3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -3555,7 +3581,7 @@
         <v>123</v>
       </c>
       <c r="AC24" s="4">
-        <v>0.035000000000000003</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AD24" s="4">
         <v>1.2749999999999999</v>
@@ -3564,7 +3590,7 @@
         <v>8.5</v>
       </c>
       <c r="AF24" s="5">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AG24">
         <v>139</v>
@@ -3573,7 +3599,7 @@
         <v>1.2</v>
       </c>
       <c r="AI24" s="5">
-        <v>5.7999999999999998</v>
+        <v>5.8</v>
       </c>
       <c r="AJ24" s="5">
         <v>13.6</v>
@@ -3582,28 +3608,28 @@
         <v>1.411</v>
       </c>
       <c r="AL24" s="4">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AM24" s="4">
         <v>0.33200000000000002</v>
       </c>
       <c r="AN24" s="5">
-        <v>27.600000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="AP24" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ24" s="4">
         <v>1.3620000000000001</v>
       </c>
       <c r="AR24" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS24" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -3680,7 +3706,7 @@
         <v>125</v>
       </c>
       <c r="AC25" s="4">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD25" s="4">
         <v>1.0489999999999999</v>
@@ -3689,7 +3715,7 @@
         <v>8.5</v>
       </c>
       <c r="AF25" s="5">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="AG25">
         <v>130</v>
@@ -3707,31 +3733,31 @@
         <v>1.383</v>
       </c>
       <c r="AL25" s="4">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AM25" s="4">
         <v>0.66400000000000003</v>
       </c>
       <c r="AN25" s="5">
-        <v>27.600000000000001</v>
+        <v>27.6</v>
       </c>
       <c r="AO25" s="5">
         <v>3.5</v>
       </c>
       <c r="AP25" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ25" s="6">
-        <v>1.3799999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AR25" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AS25" s="5">
         <v>1.7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>126</v>
       </c>
@@ -3808,13 +3834,13 @@
         <v>127</v>
       </c>
       <c r="AC26" s="6">
-        <v>0.029999999999999999</v>
+        <v>0.03</v>
       </c>
       <c r="AD26" s="4">
         <v>1.0229999999999999</v>
       </c>
       <c r="AE26" s="5">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF26" s="5">
         <v>3.5</v>
@@ -3826,7 +3852,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AI26" s="5">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AJ26" s="5">
         <v>10.4</v>
@@ -3835,28 +3861,28 @@
         <v>1.282</v>
       </c>
       <c r="AL26" s="4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AM26" s="4">
         <v>0.88900000000000001</v>
       </c>
       <c r="AN26" s="5">
-        <v>22.699999999999999</v>
+        <v>22.7</v>
       </c>
       <c r="AP26" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AQ26" s="4">
         <v>1.256</v>
       </c>
       <c r="AR26" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS26" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -3933,16 +3959,16 @@
         <v>129</v>
       </c>
       <c r="AC27" s="4">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AD27" s="4">
         <v>0.82199999999999995</v>
       </c>
       <c r="AE27" s="5">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF27" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG27">
         <v>140</v>
@@ -3960,28 +3986,28 @@
         <v>1.077</v>
       </c>
       <c r="AL27" s="4">
-        <v>0.021999999999999999</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AM27" s="4">
         <v>0.47899999999999998</v>
       </c>
       <c r="AN27" s="5">
-        <v>26.300000000000001</v>
+        <v>26.3</v>
       </c>
       <c r="AP27" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ27" s="4">
         <v>1.0669999999999999</v>
       </c>
       <c r="AR27" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS27" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -4058,16 +4084,16 @@
         <v>131</v>
       </c>
       <c r="AC28" s="4">
-        <v>0.034000000000000002</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AD28" s="4">
         <v>0.59499999999999997</v>
       </c>
       <c r="AE28" s="5">
-        <v>8.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="AF28" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG28">
         <v>157</v>
@@ -4079,34 +4105,34 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AJ28" s="5">
-        <v>11.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="AK28" s="4">
         <v>0.85699999999999998</v>
       </c>
       <c r="AL28" s="4">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AM28" s="4">
         <v>0.17299999999999999</v>
       </c>
       <c r="AN28" s="5">
-        <v>28.100000000000001</v>
+        <v>28.1</v>
       </c>
       <c r="AP28" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ28" s="4">
         <v>0.78800000000000003</v>
       </c>
       <c r="AR28" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS28" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>132</v>
       </c>
@@ -4183,10 +4209,10 @@
         <v>133</v>
       </c>
       <c r="AC29" s="4">
-        <v>0.025000000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AD29" s="6">
-        <v>0.58999999999999997</v>
+        <v>0.59</v>
       </c>
       <c r="AE29" s="5">
         <v>8.3000000000000007</v>
@@ -4198,28 +4224,28 @@
         <v>164</v>
       </c>
       <c r="AH29" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AI29" s="5">
-        <v>4.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="AJ29" s="5">
-        <v>12.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AK29" s="4">
         <v>0.82199999999999995</v>
       </c>
       <c r="AL29" s="4">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AM29" s="4">
         <v>0.13400000000000001</v>
       </c>
       <c r="AN29" s="5">
-        <v>23.600000000000001</v>
+        <v>23.6</v>
       </c>
       <c r="AO29" s="5">
-        <v>3.3999999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="AP29">
         <v>0</v>
@@ -4228,13 +4254,13 @@
         <v>0.755</v>
       </c>
       <c r="AR29" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AS29" s="5">
-        <v>1.3999999999999999</v>
+        <v>1.4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -4311,13 +4337,13 @@
         <v>135</v>
       </c>
       <c r="AC30" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AD30" s="4">
         <v>0.76900000000000002</v>
       </c>
       <c r="AE30" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF30" s="5">
         <v>3.5</v>
@@ -4338,28 +4364,28 @@
         <v>1.0129999999999999</v>
       </c>
       <c r="AL30" s="4">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AM30" s="4">
         <v>1.4810000000000001</v>
       </c>
       <c r="AN30" s="5">
-        <v>26.699999999999999</v>
+        <v>26.7</v>
       </c>
       <c r="AP30" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ30" s="4">
         <v>0.93500000000000005</v>
       </c>
       <c r="AR30" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS30" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -4436,13 +4462,13 @@
         <v>137</v>
       </c>
       <c r="AC31" s="4">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AD31" s="4">
         <v>0.83499999999999996</v>
       </c>
       <c r="AE31" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF31" s="5">
         <v>3.5</v>
@@ -4451,25 +4477,25 @@
         <v>114</v>
       </c>
       <c r="AH31" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI31" s="5">
-        <v>3.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="AJ31" s="5">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AK31" s="4">
         <v>0.93200000000000005</v>
       </c>
       <c r="AL31" s="4">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AM31" s="4">
         <v>1.4810000000000001</v>
       </c>
       <c r="AN31" s="5">
-        <v>26.300000000000001</v>
+        <v>26.3</v>
       </c>
       <c r="AP31">
         <v>0</v>
@@ -4478,13 +4504,13 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="AR31" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS31" s="5">
         <v>1.8</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -4561,34 +4587,34 @@
         <v>139</v>
       </c>
       <c r="AC32" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AD32" s="4">
         <v>1.6910000000000001</v>
       </c>
       <c r="AE32" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF32" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG32">
         <v>67</v>
       </c>
       <c r="AH32" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI32" s="5">
-        <v>2.8999999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="AJ32" s="5">
-        <v>12.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="AK32" s="4">
         <v>1.7410000000000001</v>
       </c>
       <c r="AL32" s="4">
-        <v>0.028000000000000001</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="AM32" s="4">
         <v>27.652000000000001</v>
@@ -4597,19 +4623,19 @@
         <v>19.5</v>
       </c>
       <c r="AP32" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ32" s="4">
         <v>1.712</v>
       </c>
       <c r="AR32" s="4">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="AS32" s="5">
         <v>1.3</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4686,7 +4712,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -4772,46 +4798,46 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AF34" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG34">
         <v>53</v>
       </c>
       <c r="AH34" s="5">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AI34" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AJ34" s="5">
-        <v>9.4000000000000004</v>
+        <v>9.4</v>
       </c>
       <c r="AK34" s="4">
         <v>1.573</v>
       </c>
       <c r="AL34" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AM34" s="4">
         <v>78.153000000000006</v>
       </c>
       <c r="AN34" s="5">
-        <v>22.699999999999999</v>
+        <v>22.7</v>
       </c>
       <c r="AP34" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ34" s="4">
         <v>1.5129999999999999</v>
       </c>
       <c r="AR34" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS34" s="5">
         <v>1.7</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -4888,28 +4914,28 @@
         <v>145</v>
       </c>
       <c r="AC35" s="4">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="AD35" s="4">
         <v>1.345</v>
       </c>
       <c r="AE35" s="5">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF35" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AG35">
         <v>87</v>
       </c>
       <c r="AH35" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI35" s="5">
         <v>1.5</v>
       </c>
       <c r="AJ35" s="5">
-        <v>9.5999999999999996</v>
+        <v>9.6</v>
       </c>
       <c r="AK35" s="4">
         <v>1.6060000000000001</v>
@@ -4924,7 +4950,7 @@
         <v>25</v>
       </c>
       <c r="AO35" s="5">
-        <v>1.8999999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -4933,13 +4959,13 @@
         <v>1.5760000000000001</v>
       </c>
       <c r="AR35" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS35" s="5">
         <v>1.3</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -5016,7 +5042,7 @@
         <v>147</v>
       </c>
       <c r="AC36" s="4">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AD36" s="4">
         <v>1.401</v>
@@ -5025,13 +5051,13 @@
         <v>8</v>
       </c>
       <c r="AF36" s="5">
-        <v>2.7000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="AG36">
         <v>112</v>
       </c>
       <c r="AH36" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AI36" s="5">
         <v>1.7</v>
@@ -5043,28 +5069,28 @@
         <v>1.7010000000000001</v>
       </c>
       <c r="AL36" s="4">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AM36" s="4">
         <v>2.0630000000000002</v>
       </c>
       <c r="AN36" s="5">
-        <v>26.600000000000001</v>
+        <v>26.6</v>
       </c>
       <c r="AP36" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ36" s="4">
         <v>1.6739999999999999</v>
       </c>
       <c r="AR36" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS36" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -5141,22 +5167,22 @@
         <v>149</v>
       </c>
       <c r="AC37" s="4">
-        <v>0.017000000000000001</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AD37" s="4">
         <v>1.3560000000000001</v>
       </c>
       <c r="AE37" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AF37" s="5">
-        <v>2.6000000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="AG37">
         <v>113</v>
       </c>
       <c r="AH37" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI37">
         <v>2</v>
@@ -5168,28 +5194,28 @@
         <v>1.639</v>
       </c>
       <c r="AL37" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AM37" s="4">
         <v>2.0630000000000002</v>
       </c>
       <c r="AN37" s="5">
-        <v>22.699999999999999</v>
+        <v>22.7</v>
       </c>
       <c r="AP37" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ37" s="4">
         <v>1.5980000000000001</v>
       </c>
       <c r="AR37" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS37">
         <v>1</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -5266,7 +5292,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -5349,7 +5375,7 @@
         <v>1.4490000000000001</v>
       </c>
       <c r="AE39" s="5">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF39" s="5">
         <v>2.2000000000000002</v>
@@ -5358,43 +5384,43 @@
         <v>88</v>
       </c>
       <c r="AH39" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AI39" s="5">
         <v>1.2</v>
       </c>
       <c r="AJ39" s="5">
-        <v>7.7999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="AK39" s="4">
         <v>1.6819999999999999</v>
       </c>
       <c r="AL39" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AM39" s="4">
         <v>4.6630000000000003</v>
       </c>
       <c r="AN39" s="5">
-        <v>22.800000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="AO39" s="5">
         <v>1.1000000000000001</v>
       </c>
       <c r="AP39" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ39" s="4">
         <v>1.6319999999999999</v>
       </c>
       <c r="AR39" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS39" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -5471,7 +5497,7 @@
         <v>155</v>
       </c>
       <c r="AC40" s="4">
-        <v>0.017999999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AD40" s="4">
         <v>1.5609999999999999</v>
@@ -5486,7 +5512,7 @@
         <v>110</v>
       </c>
       <c r="AH40" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="AI40" s="5">
         <v>1.3</v>
@@ -5498,28 +5524,28 @@
         <v>1.774</v>
       </c>
       <c r="AL40" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AM40" s="4">
         <v>1.855</v>
       </c>
       <c r="AN40" s="5">
-        <v>21.199999999999999</v>
+        <v>21.2</v>
       </c>
       <c r="AP40" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ40" s="6">
         <v>1.77</v>
       </c>
       <c r="AR40" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AS40">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -5596,13 +5622,13 @@
         <v>157</v>
       </c>
       <c r="AC41" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AD41" s="4">
         <v>1.3380000000000001</v>
       </c>
       <c r="AE41" s="5">
-        <v>7.9000000000000004</v>
+        <v>7.9</v>
       </c>
       <c r="AF41" s="5">
         <v>2.2000000000000002</v>
@@ -5611,7 +5637,7 @@
         <v>119</v>
       </c>
       <c r="AH41" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI41" s="5">
         <v>0.5</v>
@@ -5623,28 +5649,28 @@
         <v>1.7689999999999999</v>
       </c>
       <c r="AL41" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AM41" s="4">
         <v>1.3140000000000001</v>
       </c>
       <c r="AN41" s="5">
-        <v>20.800000000000001</v>
+        <v>20.8</v>
       </c>
       <c r="AP41" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ41" s="4">
         <v>1.7410000000000001</v>
       </c>
       <c r="AR41" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS41" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>158</v>
       </c>
@@ -5721,22 +5747,22 @@
         <v>159</v>
       </c>
       <c r="AC42" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AD42" s="4">
         <v>1.331</v>
       </c>
       <c r="AE42" s="5">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF42" s="5">
-        <v>3.1000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="AG42">
         <v>110</v>
       </c>
       <c r="AH42" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI42" s="5">
         <v>1.3</v>
@@ -5748,7 +5774,7 @@
         <v>1.5269999999999999</v>
       </c>
       <c r="AL42" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AM42" s="4">
         <v>2.286</v>
@@ -5757,19 +5783,19 @@
         <v>19.5</v>
       </c>
       <c r="AP42" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ42" s="4">
         <v>1.4870000000000001</v>
       </c>
       <c r="AR42" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AS42" s="5">
         <v>1.5</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>160</v>
       </c>
@@ -5846,7 +5872,7 @@
         <v>161</v>
       </c>
       <c r="AC43" s="4">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AD43" s="4">
         <v>1.2270000000000001</v>
@@ -5861,10 +5887,10 @@
         <v>119</v>
       </c>
       <c r="AH43" s="5">
-        <v>0.59999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="AI43" s="5">
-        <v>3.6000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="AJ43">
         <v>11</v>
@@ -5873,31 +5899,31 @@
         <v>1.6279999999999999</v>
       </c>
       <c r="AL43" s="4">
-        <v>0.0080000000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AM43" s="4">
         <v>0.88900000000000001</v>
       </c>
       <c r="AN43" s="5">
-        <v>17.699999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="AO43" s="5">
         <v>1.8</v>
       </c>
       <c r="AP43" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ43" s="4">
         <v>1.5860000000000001</v>
       </c>
       <c r="AR43" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS43" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -5974,13 +6000,13 @@
         <v>163</v>
       </c>
       <c r="AC44" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AD44" s="4">
         <v>1.224</v>
       </c>
       <c r="AE44" s="5">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF44">
         <v>2</v>
@@ -5989,7 +6015,7 @@
         <v>123</v>
       </c>
       <c r="AH44" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AI44" s="5">
         <v>1.5</v>
@@ -6001,7 +6027,7 @@
         <v>1.728</v>
       </c>
       <c r="AL44" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AM44" s="4">
         <v>0.56699999999999995</v>
@@ -6010,19 +6036,19 @@
         <v>18.899999999999999</v>
       </c>
       <c r="AP44" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ44" s="6">
         <v>1.52</v>
       </c>
       <c r="AR44" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS44" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -6114,7 +6140,7 @@
         <v>126</v>
       </c>
       <c r="AH45" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI45">
         <v>1</v>
@@ -6123,10 +6149,10 @@
         <v>12.6</v>
       </c>
       <c r="AK45" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AL45" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AM45" s="4">
         <v>0.47899999999999998</v>
@@ -6141,13 +6167,13 @@
         <v>1.5580000000000001</v>
       </c>
       <c r="AR45" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS45" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>166</v>
       </c>
@@ -6224,25 +6250,25 @@
         <v>167</v>
       </c>
       <c r="AC46" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AD46" s="4">
         <v>1.371</v>
       </c>
       <c r="AE46" s="5">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF46" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AG46">
         <v>130</v>
       </c>
       <c r="AH46" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI46" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AJ46">
         <v>13</v>
@@ -6251,28 +6277,28 @@
         <v>1.5880000000000001</v>
       </c>
       <c r="AL46" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AM46" s="4">
         <v>0.40200000000000002</v>
       </c>
       <c r="AN46" s="5">
-        <v>14.699999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="AP46" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ46" s="4">
         <v>1.5629999999999999</v>
       </c>
       <c r="AR46" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS46" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -6349,7 +6375,7 @@
         <v>169</v>
       </c>
       <c r="AC47" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AD47" s="4">
         <v>1.474</v>
@@ -6364,7 +6390,7 @@
         <v>130</v>
       </c>
       <c r="AH47" s="5">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AI47" s="5">
         <v>0.5</v>
@@ -6376,7 +6402,7 @@
         <v>1.829</v>
       </c>
       <c r="AL47" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AM47" s="4">
         <v>0.40200000000000002</v>
@@ -6385,22 +6411,22 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="AO47" s="5">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AP47" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ47" s="4">
         <v>1.8260000000000001</v>
       </c>
       <c r="AR47" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS47" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -6477,55 +6503,55 @@
         <v>171</v>
       </c>
       <c r="AC48" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AD48" s="4">
         <v>1.9490000000000001</v>
       </c>
       <c r="AE48" s="5">
-        <v>8.0999999999999996</v>
+        <v>8.1</v>
       </c>
       <c r="AF48" s="5">
-        <v>3.2000000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="AG48">
         <v>85</v>
       </c>
       <c r="AH48" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AI48" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="AJ48" s="5">
-        <v>12.699999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="AK48" s="4">
         <v>2.3969999999999998</v>
       </c>
       <c r="AL48" s="4">
-        <v>0.010999999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AM48" s="4">
         <v>5.8570000000000002</v>
       </c>
       <c r="AN48" s="5">
-        <v>6.7000000000000002</v>
+        <v>6.7</v>
       </c>
       <c r="AP48" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ48" s="4">
         <v>2.387</v>
       </c>
       <c r="AR48" s="4">
-        <v>0.0070000000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AS48" s="5">
-        <v>1.6000000000000001</v>
+        <v>1.6</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -6602,7 +6628,7 @@
         <v>173</v>
       </c>
       <c r="AC49" s="4">
-        <v>0.012</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AD49" s="4">
         <v>2.0659999999999998</v>
@@ -6617,10 +6643,10 @@
         <v>105</v>
       </c>
       <c r="AH49" s="5">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AI49" s="5">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AJ49" s="5">
         <v>13.5</v>
@@ -6629,7 +6655,7 @@
         <v>2.3210000000000002</v>
       </c>
       <c r="AL49" s="4">
-        <v>0.0060000000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AM49" s="4">
         <v>0.77100000000000002</v>
@@ -6638,19 +6664,19 @@
         <v>8</v>
       </c>
       <c r="AP49" s="4">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AQ49" s="4">
         <v>2.2679999999999998</v>
       </c>
       <c r="AR49" s="4">
-        <v>0.0040000000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AS49" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>174</v>
       </c>
@@ -6727,7 +6753,7 @@
         <v>175</v>
       </c>
       <c r="AC50" s="4">
-        <v>0.0089999999999999993</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AD50" s="4">
         <v>2.0259999999999998</v>
@@ -6742,43 +6768,43 @@
         <v>109</v>
       </c>
       <c r="AH50" s="5">
-        <v>0.29999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="AI50" s="5">
-        <v>0.40000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="AJ50" s="5">
-        <v>15.199999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="AK50" s="4">
         <v>2.0779999999999998</v>
       </c>
       <c r="AL50" s="4">
-        <v>0.0050000000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM50" s="4">
         <v>0.47899999999999998</v>
       </c>
       <c r="AN50" s="5">
-        <v>5.2999999999999998</v>
+        <v>5.3</v>
       </c>
       <c r="AO50" s="5">
-        <v>0.20000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AP50" s="4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AQ50" s="4">
         <v>2.0390000000000001</v>
       </c>
       <c r="AR50" s="4">
-        <v>0.0030000000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AS50" s="5">
-        <v>0.69999999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -6855,7 +6881,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -6932,7 +6958,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -7009,7 +7035,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -7085,8 +7111,61 @@
       <c r="AB54" t="s">
         <v>183</v>
       </c>
+      <c r="AC54" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AD54" s="4">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="AE54" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AF54" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="AG54">
+        <v>109</v>
+      </c>
+      <c r="AH54" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AI54" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AJ54" s="5">
+        <v>15.2</v>
+      </c>
+      <c r="AK54" s="4">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="AL54" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM54" s="4">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="AN54" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="AO54" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AP54" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="AQ54" s="4">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="AR54" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AS54" s="5">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="55"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>